--- a/medicine/Enfance/Jörg_Hartmann_et_Lothar_Schleusener/Jörg_Hartmann_et_Lothar_Schleusener.xlsx
+++ b/medicine/Enfance/Jörg_Hartmann_et_Lothar_Schleusener/Jörg_Hartmann_et_Lothar_Schleusener.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Hartmann_et_Lothar_Schleusener</t>
+          <t>Jörg_Hartmann_et_Lothar_Schleusener</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jörg Hartmann (né le 27 octobre 1955) et Lothar Schleusener (né le 14 janvier 1953 ; tous les deux décédés le 14 mars 1966 à Berlin-Est) sont, à 10 et 13 ans, les plus jeunes personnes à avoir été abattues en tentant de passer le mur de Berlin. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Hartmann_et_Lothar_Schleusener</t>
+          <t>Jörg_Hartmann_et_Lothar_Schleusener</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Plan d'évasion et mort</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux amis sont restés le soir du 14 mars 1966 dans la colonie de jardins familiaux « Sorgenfrei » au nord de Treptow, un quartier de Berlin-Est. Jörg Hartmann, qui vivait avec ses frères et sœurs chez sa grand-mère à Berlin-Est, voulait aller voir son père à Berlin-Ouest. 
 Le plan des deux garçons était de ramper à travers le tuyau par lequel l'eau du fossé de Heidekamp passait sous la frontière. Lorsque les gardes-frontières en service ont découvert les deux enfants, ils ont ouvert le feu, bien que l'utilisation d'armes à feu ait été expressément interdite contre des enfants. Jörg Hartmann a reçu plusieurs tirs à la tête et décède sur le coup. Lothar Schleusener a été gravement touché et emmené à l'hôpital de la police, où il est décédé quelques heures plus tard. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Hartmann_et_Lothar_Schleusener</t>
+          <t>Jörg_Hartmann_et_Lothar_Schleusener</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Suites juridiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'époque, les deux gardes-frontières, Siegfried B. et Paul P., n'ont pas été poursuivis malgré la violation du règlement applicable sur l'utilisation des armes à feu. En novembre 1997, le tribunal régional de Berlin a condamné l'ancien chef de poste Siegfried B. pour homicide involontaire à une peine de prison de 20 mois avec sursis[1]. Paul P. était déjà décédé au moment du procès. Aucune enquête n'a été ouverte contre les supérieurs des deux gardes-frontières. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'époque, les deux gardes-frontières, Siegfried B. et Paul P., n'ont pas été poursuivis malgré la violation du règlement applicable sur l'utilisation des armes à feu. En novembre 1997, le tribunal régional de Berlin a condamné l'ancien chef de poste Siegfried B. pour homicide involontaire à une peine de prison de 20 mois avec sursis. Paul P. était déjà décédé au moment du procès. Aucune enquête n'a été ouverte contre les supérieurs des deux gardes-frontières. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Hartmann_et_Lothar_Schleusener</t>
+          <t>Jörg_Hartmann_et_Lothar_Schleusener</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Souvenir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'initiative de l'assemblée du district de Treptow, un mémorial a été érigé en 1999 en mémoire des 15 victimes du mur dans le quartier de Treptow. Le mémorial créé par les sculpteurs Rüdiger Roehl et Jan Skuin a été érigé au numéro 33 de la Kiefholzstrasse où Hartmann et Schleusener ont été abattus. La plaque au pied du mémorial porte l'inscription suivante : 
 « À Treptow sont morts 15 personnes, victimes du mur de Berlin. Parmi eux figurent deux enfants, Jörg Hartmann, 10 ans, et Lothar Schleusener, 13 ans, abattus le 14 mars 1966. »
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J%C3%B6rg_Hartmann_et_Lothar_Schleusener</t>
+          <t>Jörg_Hartmann_et_Lothar_Schleusener</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Film documentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Simone Warias et Friedrich Herkt, Geboren 1955 – Erschossen 1966, Mitteldeutscher Rundfunk, 2001.</t>
         </is>
